--- a/doc/book_templates解析.xlsx
+++ b/doc/book_templates解析.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user1\work\workspace\git\bookproject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416B9E5F-04D3-440E-B738-B4A047549A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7347E87D-5B3A-4ED4-B5BF-F7C9076E86D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9482,11 +9482,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EA06B3-54C3-4FDD-B7D8-2F1F4111270E}">
   <dimension ref="B1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="117.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">

--- a/doc/book_templates解析.xlsx
+++ b/doc/book_templates解析.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user1\work\workspace\git\bookproject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FCD0E5-BD5B-4755-9A21-886BC241E8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19829DFB-3935-47F7-A3A3-A3FD6E4D4E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index.html" sheetId="7" r:id="rId1"/>
     <sheet name="book_list.html" sheetId="5" r:id="rId2"/>
-    <sheet name="book_confirm_delete.html" sheetId="2" r:id="rId3"/>
-    <sheet name="book_create.html" sheetId="3" r:id="rId4"/>
-    <sheet name="book_detail.html" sheetId="4" r:id="rId5"/>
+    <sheet name="book_detail.html" sheetId="4" r:id="rId3"/>
+    <sheet name="book_confirm_delete.html" sheetId="2" r:id="rId4"/>
+    <sheet name="book_create.html" sheetId="3" r:id="rId5"/>
     <sheet name="book_update.html" sheetId="6" r:id="rId6"/>
     <sheet name="review_form.html" sheetId="8" r:id="rId7"/>
     <sheet name="pagination.html" sheetId="9" r:id="rId8"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="168">
   <si>
     <r>
       <t xml:space="preserve">{% </t>
@@ -1180,119 +1180,6 @@
         <family val="3"/>
       </rPr>
       <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            {% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC586C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>for</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>review</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC586C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>object</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>review_set</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>all</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> %}</t>
     </r>
   </si>
   <si>
@@ -8475,6 +8362,234 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑(他のと違ってヘッダ忘れている？)</t>
+    <rPh sb="2" eb="3">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ワス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>継承元のコンテンツ</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルの表示。Object は views.py の DetailBookViewで設定されたBook</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bookの内容の表示</t>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            {% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>review</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>review_set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> %}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ForeignKeyでBookモデルに紐づいているReviewモデルからの逆参照
+.review_set は、デフォルトの名前で、Djangoが自動生成する関連名
+class名がreviewだから上記の名前になっている。
+Bookに紐づくReviewモデルのデータを全取得し、ループで処理する。</t>
+    <rPh sb="87" eb="88">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビューのタイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bootstrap 用のclass</t>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価値</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウカチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各ページへのリンク</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8651,6 +8766,55 @@
         <a:xfrm>
           <a:off x="14906625" y="6743700"/>
           <a:ext cx="7659169" cy="4791744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>96316</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76709</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97D86AF9-AF4A-5E59-19B1-C45C4BC662C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15249525" y="2381250"/>
+          <a:ext cx="7640116" cy="3648584"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8937,16 +9101,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
         <v>118</v>
-      </c>
-      <c r="D1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8954,21 +9118,21 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8976,43 +9140,43 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9020,494 +9184,494 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="93.75">
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
         <v>125</v>
       </c>
-      <c r="C11" t="s">
-        <v>126</v>
-      </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" t="s">
         <v>131</v>
       </c>
-      <c r="C15" t="s">
-        <v>132</v>
-      </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="168.75">
       <c r="B26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -9515,10 +9679,10 @@
         <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -9532,7 +9696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA152DCB-26B4-4644-9C20-F530CCC9C8FD}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -9542,16 +9706,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9559,21 +9723,21 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -9581,43 +9745,43 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9625,120 +9789,120 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="37.5">
       <c r="B9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="37.5">
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -9746,10 +9910,10 @@
         <v>9</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -9759,6 +9923,347 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4AC249-D8F1-48A2-9D71-723CE0CF1097}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="107.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="65.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="93.75">
+      <c r="B11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B13612-F4A7-428E-B5C3-349FF179BC07}">
   <dimension ref="B1:B10"/>
   <sheetViews>
@@ -9825,7 +10330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D04260-B43A-4A5D-AB6B-B2B16AFC3F2D}">
   <dimension ref="B1:B13"/>
   <sheetViews>
@@ -9898,168 +10403,6 @@
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4AC249-D8F1-48A2-9D71-723CE0CF1097}">
-  <dimension ref="B1:B29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="2" max="2" width="107.875" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10092,7 +10435,7 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -10132,7 +10475,7 @@
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:2">
@@ -10174,7 +10517,7 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -10184,17 +10527,17 @@
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -10219,92 +10562,92 @@
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="2:2">
@@ -10337,107 +10680,107 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/doc/book_templates解析.xlsx
+++ b/doc/book_templates解析.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user1\work\workspace\git\bookproject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19829DFB-3935-47F7-A3A3-A3FD6E4D4E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382BC935-94BB-4169-A5B9-E9717AFA76C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="607" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index.html" sheetId="7" r:id="rId1"/>
     <sheet name="book_list.html" sheetId="5" r:id="rId2"/>
     <sheet name="book_detail.html" sheetId="4" r:id="rId3"/>
-    <sheet name="book_confirm_delete.html" sheetId="2" r:id="rId4"/>
-    <sheet name="book_create.html" sheetId="3" r:id="rId5"/>
+    <sheet name="book_create.html" sheetId="3" r:id="rId4"/>
+    <sheet name="book_confirm_delete.html" sheetId="2" r:id="rId5"/>
     <sheet name="book_update.html" sheetId="6" r:id="rId6"/>
     <sheet name="review_form.html" sheetId="8" r:id="rId7"/>
     <sheet name="pagination.html" sheetId="9" r:id="rId8"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="177">
   <si>
     <r>
       <t xml:space="preserve">{% </t>
@@ -8593,12 +8593,378 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>enctype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"multipart/form-data"</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        {{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>as_p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> }}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これは HTML の &lt;form&gt; 要素の属性で、ファイルをアップロードするために絶対に必要です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🔸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>なぜ必要か？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>フォーム内に画像やファイルを含む</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;input type="file"&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>があるとき、フォームの内容はバイナリデータとして送信される必要があります。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>普通の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> application/x-www-form-urlencoded </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ではファイルが送れないので、代わりに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> multipart/form-data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を使います。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🔸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>このケースでは？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Book </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>モデルに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> thumbnail = models.ImageField(...) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のようなフィールドがあると仮定すると、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>このフォームは画像ファイルをアップロードするので</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> enctype="multipart/form-data" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>が必要です。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティ対策</t>
+    <rPh sb="6" eb="8">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>postメソッドのformを定義</t>
+    <rPh sb="14" eb="16">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>継承元定義の箇所</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Djangoのテンプレートタグで、フォームの各フィールドを &lt;p&gt; タグで囲って自動的に表示してくれるものです。
+CreateView を使っていることで、テンプレートに自動的に form という ModelFormインスタンス が渡されるため、
+テンプレート内で {{ form.as_p }} を使えるようになっています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8661,6 +9027,18 @@
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -8821,6 +9199,373 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>204106</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>40820</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>231321</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B4D742C-B942-143C-F9AD-5887C1D4F42F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14205856" y="4694464"/>
+          <a:ext cx="7796893" cy="7116536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🔹 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>{{ form.as_p }} </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>とは？</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Django</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>のテンプレートタグで、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>フォームの各フィールドを </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>&lt;p&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>タグで囲って自動的に表示</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>してくれるものです。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🔸 具体的にはどうなるのか？</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>例えばフォームが以下のようなものだったとすると：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>class BookForm(forms.ModelForm):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>    class Meta:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>        model = Book</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>        fields = ["title", "text", "category", "thumbnail"]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>{{ form.as_p }} </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>は実行時に以下のような</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>HTML</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>に展開されます：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>&lt;p&gt;&lt;label for="id_title"&gt;Title:&lt;/label&gt; &lt;input type="text" name="title" required id="id_title"&gt;&lt;/p&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>&lt;p&gt;&lt;label for="id_text"&gt;Text:&lt;/label&gt; &lt;textarea name="text" required id="id_text"&gt;&lt;/textarea&gt;&lt;/p&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>&lt;p&gt;&lt;label for="id_category"&gt;Category:&lt;/label&gt; &lt;select name="category" id="id_category"&gt;...&lt;/select&gt;&lt;/p&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>&lt;p&gt;&lt;label for="id_thumbnail"&gt;Thumbnail:&lt;/label&gt; &lt;input type="file" name="thumbnail" id="id_thumbnail"&gt;&lt;/p&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🔸 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>form.as_p </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>の代わりにできること</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>{{ form.as_table }} → </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>テーブル形式で出力</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>{{ form.as_ul }} → &lt;ul&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>（リスト）形式で出力</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>各フィールドを個別に指定することも可能：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>html</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>コピーする編集する</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>{{ form.title.label_tag }} {{ form.title }}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>補足：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>🔹 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>{{ form.as_p }} </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>は何をする？</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>テンプレートに </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>form </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>が渡されていれば、それが </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>ModelForm </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>であるかぎり、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>form.as_p</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>（段落ごとの表示）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>form.as_table</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>（表形式）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>form.as_ul</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>（リスト形式）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>などの「レンダリングメソッド」を呼び出せます。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>つまり </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>form </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>というコンテキスト変数さえ渡っていれば、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>CreateView </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>でなくても使えます。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9926,7 +10671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4AC249-D8F1-48A2-9D71-723CE0CF1097}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -10264,6 +11009,176 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D04260-B43A-4A5D-AB6B-B2B16AFC3F2D}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="107.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="59.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="202.5">
+      <c r="B7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="150">
+      <c r="B10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B13612-F4A7-428E-B5C3-349FF179BC07}">
   <dimension ref="B1:B10"/>
   <sheetViews>
@@ -10321,88 +11236,6 @@
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D04260-B43A-4A5D-AB6B-B2B16AFC3F2D}">
-  <dimension ref="B1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="2" max="2" width="107.875" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/doc/book_templates解析.xlsx
+++ b/doc/book_templates解析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user1\work\workspace\git\bookproject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382BC935-94BB-4169-A5B9-E9717AFA76C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6FB574-C8BB-439D-B2BD-1D877B724F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="607" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="607" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index.html" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="194">
   <si>
     <r>
       <t xml:space="preserve">{% </t>
@@ -8957,6 +8957,85 @@
     <t>Djangoのテンプレートタグで、フォームの各フィールドを &lt;p&gt; タグで囲って自動的に表示してくれるものです。
 CreateView を使っていることで、テンプレートに自動的に form という ModelFormインスタンス が渡されるため、
 テンプレート内で {{ form.as_p }} を使えるようになっています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{% extends "base.html" %}</t>
+  </si>
+  <si>
+    <t>{% block title %}</t>
+  </si>
+  <si>
+    <t>{% endblock title %}</t>
+  </si>
+  <si>
+    <t>{% block content %}</t>
+  </si>
+  <si>
+    <t>    &lt;h2&gt;「{{ object.title }}」を本当に削除してもよろしいですか？&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;form method="post"&gt;</t>
+  </si>
+  <si>
+    <t>        {% csrf_token %}</t>
+  </si>
+  <si>
+    <t>        &lt;button type="submit" style="background-color: red; color: white;"&gt;</t>
+  </si>
+  <si>
+    <t>            削除する</t>
+  </si>
+  <si>
+    <t>        &lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;a href="{% url 'list-book' %}"&gt;キャンセル&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/form&gt;</t>
+  </si>
+  <si>
+    <t>{% endblock content %}</t>
+  </si>
+  <si>
+    <t>分かりやすいUIにするための改善例。</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンを押すとpost</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>継承元定義</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑(ここはセキュリティ対策)</t>
+    <rPh sb="11" eb="13">
+      <t>タイサク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11012,7 +11091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D04260-B43A-4A5D-AB6B-B2B16AFC3F2D}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -11180,63 +11259,189 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B13612-F4A7-428E-B5C3-349FF179BC07}">
-  <dimension ref="B1:B10"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="107.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="7" max="7" width="70.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:2">
+      <c r="C1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:2">
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
+      <c r="C5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:2">
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
+      <c r="C7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="2:2">
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="B10" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="G11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="G12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="G13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="G14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="G15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="G16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/doc/book_templates解析.xlsx
+++ b/doc/book_templates解析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user1\work\workspace\git\bookproject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6FB574-C8BB-439D-B2BD-1D877B724F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA4FA06-F37C-4BFB-B12F-1F2B18FCF5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="607" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="607" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index.html" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="207">
   <si>
     <r>
       <t xml:space="preserve">{% </t>
@@ -6547,146 +6547,6 @@
         <family val="3"/>
       </rPr>
       <t>{% comment %} Bookオブジェクト送信用 {% endcomment %}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>input</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"hidden"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"book"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"{{ book.id }}"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
     </r>
   </si>
   <si>
@@ -9035,6 +8895,283 @@
     <t>↑(ここはセキュリティ対策)</t>
     <rPh sb="11" eb="13">
       <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>継承元定義</t>
+    <rPh sb="0" eb="3">
+      <t>ケイショウモト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッドにpostを指定</t>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>formに画像を含むための処理</t>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UpdateBookViewで指定したfieldを表示</t>
+    <rPh sb="15" eb="17">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベースの継承</t>
+    <rPh sb="4" eb="6">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基底クラスのコンテンツ</t>
+    <rPh sb="0" eb="2">
+      <t>キテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>postメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力フォーム</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択式の入力フォーム</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力フォーム, bookはviewからレンダリング時に渡してるから使える。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"hidden"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"book"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"{{ book.id }}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">フォームでどのbookかを指定する必要がある。
+しかしviewを開いている時点でどのbookかは決まっているので、ユーザーに選ばせたくない。
+そのためhiddenで表示せずにpostメソッドで送信している。
+</t>
+    <rPh sb="13" eb="15">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ソウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -9120,7 +9257,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9139,6 +9276,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -9152,7 +9295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9168,6 +9311,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -9650,6 +9794,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>10675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38870</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16045C69-DD99-025A-2A99-BDF7C2A44CEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13687425" y="2857500"/>
+          <a:ext cx="8240275" cy="5515745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>363092</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>191413</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{971BCFF5-F074-C77D-07BB-E7F2239A8C79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14097000" y="8648700"/>
+          <a:ext cx="8183117" cy="6544588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9925,16 +10162,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9942,10 +10179,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9953,10 +10190,10 @@
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -9964,10 +10201,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9975,10 +10212,10 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9986,10 +10223,10 @@
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9997,10 +10234,10 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -10008,10 +10245,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="93.75">
@@ -10019,10 +10256,10 @@
         <v>53</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -10030,21 +10267,21 @@
         <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" t="s">
         <v>124</v>
       </c>
-      <c r="C11" t="s">
-        <v>125</v>
-      </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -10052,10 +10289,10 @@
         <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10063,10 +10300,10 @@
         <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -10074,21 +10311,21 @@
         <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" t="s">
         <v>130</v>
       </c>
-      <c r="C15" t="s">
-        <v>131</v>
-      </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -10096,10 +10333,10 @@
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -10107,10 +10344,10 @@
         <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -10118,10 +10355,10 @@
         <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -10129,10 +10366,10 @@
         <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -10140,10 +10377,10 @@
         <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -10151,10 +10388,10 @@
         <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -10162,10 +10399,10 @@
         <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -10173,10 +10410,10 @@
         <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -10184,10 +10421,10 @@
         <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -10195,21 +10432,21 @@
         <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="168.75">
       <c r="B26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -10217,10 +10454,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -10228,10 +10465,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -10239,10 +10476,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -10250,10 +10487,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -10261,10 +10498,10 @@
         <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -10272,10 +10509,10 @@
         <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -10283,10 +10520,10 @@
         <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -10294,10 +10531,10 @@
         <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -10305,10 +10542,10 @@
         <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -10316,10 +10553,10 @@
         <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -10327,10 +10564,10 @@
         <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -10338,10 +10575,10 @@
         <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -10349,10 +10586,10 @@
         <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -10360,10 +10597,10 @@
         <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="2:4">
@@ -10371,10 +10608,10 @@
         <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="2:4">
@@ -10382,10 +10619,10 @@
         <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="2:4">
@@ -10393,10 +10630,10 @@
         <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="2:4">
@@ -10404,10 +10641,10 @@
         <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="2:4">
@@ -10415,10 +10652,10 @@
         <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="2:4">
@@ -10426,10 +10663,10 @@
         <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="2:4">
@@ -10437,10 +10674,10 @@
         <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="2:4">
@@ -10448,10 +10685,10 @@
         <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="2:4">
@@ -10459,10 +10696,10 @@
         <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -10470,10 +10707,10 @@
         <v>80</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="2:4">
@@ -10481,10 +10718,10 @@
         <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="2:4">
@@ -10492,10 +10729,10 @@
         <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -10503,10 +10740,10 @@
         <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -10530,16 +10767,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -10547,10 +10784,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10558,10 +10795,10 @@
         <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10569,10 +10806,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10580,10 +10817,10 @@
         <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -10591,10 +10828,10 @@
         <v>39</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -10602,10 +10839,10 @@
         <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -10613,21 +10850,21 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="37.5">
       <c r="B9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -10635,10 +10872,10 @@
         <v>42</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -10646,10 +10883,10 @@
         <v>43</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -10657,10 +10894,10 @@
         <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10668,10 +10905,10 @@
         <v>45</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="37.5">
@@ -10679,10 +10916,10 @@
         <v>46</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -10690,10 +10927,10 @@
         <v>47</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -10701,10 +10938,10 @@
         <v>31</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -10712,10 +10949,10 @@
         <v>48</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -10723,10 +10960,10 @@
         <v>49</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -10734,10 +10971,10 @@
         <v>9</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -10760,16 +10997,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -10777,10 +11014,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10788,10 +11025,10 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10799,10 +11036,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10810,10 +11047,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -10821,10 +11058,10 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -10832,10 +11069,10 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -10843,10 +11080,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10854,10 +11091,10 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -10865,21 +11102,21 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="93.75">
       <c r="B11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -10887,10 +11124,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10898,10 +11135,10 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -10909,10 +11146,10 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -10920,10 +11157,10 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -10931,10 +11168,10 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -10942,10 +11179,10 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -10953,10 +11190,10 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -10964,10 +11201,10 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -10975,10 +11212,10 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -10986,10 +11223,10 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -10997,10 +11234,10 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -11008,10 +11245,10 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -11019,10 +11256,10 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -11030,10 +11267,10 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -11041,10 +11278,10 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -11052,10 +11289,10 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -11063,10 +11300,10 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -11074,10 +11311,10 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -11102,17 +11339,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>118</v>
+      <c r="A1" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11120,10 +11357,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11131,10 +11368,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -11142,10 +11379,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -11153,10 +11390,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -11164,24 +11401,24 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="202.5">
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="D7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -11189,10 +11426,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -11200,21 +11437,21 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="150">
       <c r="B10" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -11222,10 +11459,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -11233,10 +11470,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -11244,10 +11481,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -11261,7 +11498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B13612-F4A7-428E-B5C3-349FF179BC07}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -11271,20 +11508,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>118</v>
+      <c r="A1" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -11292,13 +11529,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -11306,10 +11543,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -11317,13 +11554,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -11331,10 +11568,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
         <v>2</v>
@@ -11345,13 +11582,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -11359,10 +11596,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11370,13 +11607,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -11384,13 +11621,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -11398,50 +11635,50 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="G11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="G12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="G13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="G14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="G15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="G16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="7:7">
       <c r="G17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="7:7">
       <c r="G18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -11452,78 +11689,124 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F33F50-928B-4AF8-9253-E1C1E776C752}">
-  <dimension ref="B1:B13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="107.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:2">
+      <c r="C1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="2:2">
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
+      <c r="C5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="2:2">
+      <c r="C6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
+      <c r="C7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="2:2">
+      <c r="C9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
+      <c r="C10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="B11" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="2:2">
+      <c r="C11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="2:2">
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="B13" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -11534,173 +11817,366 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685755CE-0B02-42A8-B857-331C5C962125}">
-  <dimension ref="B1:B31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="107.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:2">
+      <c r="C1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="2:2">
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="B6" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="2:2">
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
+      <c r="C8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="2:2">
+      <c r="C9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="2:2">
+      <c r="C11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="B12" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="13" spans="2:2">
+      <c r="C12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="B13" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="2:2">
+      <c r="C13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="B14" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="2:2">
+      <c r="C14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="B15" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="16" spans="2:2">
+      <c r="C15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="B16" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
+      <c r="C16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="C17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
+      <c r="C18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
+      <c r="C19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
+      <c r="C20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
+      <c r="C21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
       <c r="B22" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
       <c r="B23" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="24" spans="2:2">
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
       <c r="B24" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="25" spans="2:2">
+      <c r="C24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
       <c r="B25" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="2:2">
+      <c r="C25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
       <c r="B26" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="27" spans="2:2">
+      <c r="C26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
       <c r="B27" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="28" spans="2:2">
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="131.25">
       <c r="B28" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
+      <c r="C29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="2:2">
+      <c r="C30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
       <c r="B31" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11708,7 +12184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EA06B3-54C3-4FDD-B7D8-2F1F4111270E}">
   <dimension ref="B1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -11718,107 +12194,107 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/doc/book_templates解析.xlsx
+++ b/doc/book_templates解析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user1\work\workspace\git\bookproject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA4FA06-F37C-4BFB-B12F-1F2B18FCF5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE7D8BA-3551-41D7-B818-4F9202466C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="607" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="210">
   <si>
     <r>
       <t xml:space="preserve">{% </t>
@@ -6691,65 +6691,6 @@
   </si>
   <si>
     <t>{% comment %} ページネーションで区切るデータの数よりモデルに格納されているデータの数の方が少ない {% endcomment %}</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC586C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>if</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>page_obj</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>has_other_pages</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> %}</t>
-    </r>
   </si>
   <si>
     <r>
@@ -9173,6 +9114,82 @@
     <rPh sb="97" eb="99">
       <t>ソウシン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>page_objはDjangoのPaginatorクラスが返すページオブジェクト。
+has_other_pagesがTrue（つまり1ページ以上ある）ときだけ、以下のナビゲーションを表示。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>has_previousで「前のページがあるか？」をチェック。
+前のページがあるなら、リンクとして表示（例：?page=2）。
+ない場合は、クリックできない「グレー表示」風にtext-muted（Bootstrapのクラス）を使って無効化。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こちらも同様に、次のページがあるかどうかを確認。
+あればリンク、なければ無効表示。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>page_obj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>has_other_pages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> %}</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9887,6 +9904,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>115346</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C19B126B-D7AB-F422-E37E-BF5512982E30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15792450" y="400050"/>
+          <a:ext cx="7497221" cy="4477375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10162,16 +10228,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -10179,10 +10245,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10190,10 +10256,10 @@
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10201,10 +10267,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10212,10 +10278,10 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -10223,10 +10289,10 @@
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -10234,10 +10300,10 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -10245,10 +10311,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="93.75">
@@ -10256,10 +10322,10 @@
         <v>53</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -10267,21 +10333,21 @@
         <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
         <v>123</v>
       </c>
-      <c r="C11" t="s">
-        <v>124</v>
-      </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -10289,10 +10355,10 @@
         <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10300,10 +10366,10 @@
         <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -10311,21 +10377,21 @@
         <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
         <v>129</v>
       </c>
-      <c r="C15" t="s">
-        <v>130</v>
-      </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -10333,10 +10399,10 @@
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -10344,10 +10410,10 @@
         <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -10355,10 +10421,10 @@
         <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -10366,10 +10432,10 @@
         <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -10377,10 +10443,10 @@
         <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -10388,10 +10454,10 @@
         <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -10399,10 +10465,10 @@
         <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -10410,10 +10476,10 @@
         <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -10421,10 +10487,10 @@
         <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -10432,21 +10498,21 @@
         <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="168.75">
       <c r="B26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -10454,10 +10520,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -10465,10 +10531,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -10476,10 +10542,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -10487,10 +10553,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -10498,10 +10564,10 @@
         <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -10509,10 +10575,10 @@
         <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -10520,10 +10586,10 @@
         <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -10531,10 +10597,10 @@
         <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -10542,10 +10608,10 @@
         <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -10553,10 +10619,10 @@
         <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -10564,10 +10630,10 @@
         <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -10575,10 +10641,10 @@
         <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -10586,10 +10652,10 @@
         <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -10597,10 +10663,10 @@
         <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="2:4">
@@ -10608,10 +10674,10 @@
         <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="2:4">
@@ -10619,10 +10685,10 @@
         <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="2:4">
@@ -10630,10 +10696,10 @@
         <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="2:4">
@@ -10641,10 +10707,10 @@
         <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="2:4">
@@ -10652,10 +10718,10 @@
         <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="2:4">
@@ -10663,10 +10729,10 @@
         <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="2:4">
@@ -10674,10 +10740,10 @@
         <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="2:4">
@@ -10685,10 +10751,10 @@
         <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="2:4">
@@ -10696,10 +10762,10 @@
         <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -10707,10 +10773,10 @@
         <v>80</v>
       </c>
       <c r="C50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="2:4">
@@ -10718,10 +10784,10 @@
         <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="2:4">
@@ -10729,10 +10795,10 @@
         <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -10740,10 +10806,10 @@
         <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -10767,16 +10833,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -10784,10 +10850,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10795,10 +10861,10 @@
         <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10806,10 +10872,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10817,10 +10883,10 @@
         <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -10828,10 +10894,10 @@
         <v>39</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -10839,10 +10905,10 @@
         <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -10850,21 +10916,21 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="37.5">
       <c r="B9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -10872,10 +10938,10 @@
         <v>42</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -10883,10 +10949,10 @@
         <v>43</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -10894,10 +10960,10 @@
         <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10905,10 +10971,10 @@
         <v>45</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="37.5">
@@ -10916,10 +10982,10 @@
         <v>46</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -10927,10 +10993,10 @@
         <v>47</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -10938,10 +11004,10 @@
         <v>31</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -10949,10 +11015,10 @@
         <v>48</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -10960,10 +11026,10 @@
         <v>49</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -10971,10 +11037,10 @@
         <v>9</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -10997,16 +11063,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11014,10 +11080,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -11025,10 +11091,10 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -11036,10 +11102,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -11047,10 +11113,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -11058,10 +11124,10 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -11069,10 +11135,10 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -11080,10 +11146,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11091,10 +11157,10 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -11102,21 +11168,21 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="93.75">
       <c r="B11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -11124,10 +11190,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11135,10 +11201,10 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -11146,10 +11212,10 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -11157,10 +11223,10 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -11168,10 +11234,10 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -11179,10 +11245,10 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -11190,10 +11256,10 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -11201,10 +11267,10 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -11212,10 +11278,10 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -11223,10 +11289,10 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -11234,10 +11300,10 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -11245,10 +11311,10 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -11256,10 +11322,10 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -11267,10 +11333,10 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -11278,10 +11344,10 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -11289,10 +11355,10 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -11300,10 +11366,10 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -11311,10 +11377,10 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -11340,16 +11406,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11357,10 +11423,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11368,10 +11434,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -11379,10 +11445,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -11390,10 +11456,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -11401,24 +11467,24 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="202.5">
       <c r="B7" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="D7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -11426,10 +11492,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -11437,21 +11503,21 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="150">
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -11459,10 +11525,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -11470,10 +11536,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -11481,10 +11547,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -11509,19 +11575,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -11529,13 +11595,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -11543,10 +11609,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -11554,13 +11620,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -11568,10 +11634,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G5" t="s">
         <v>2</v>
@@ -11582,13 +11648,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -11596,10 +11662,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11607,13 +11673,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -11621,13 +11687,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -11635,50 +11701,50 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="G11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="G12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="G13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="G14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="G15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="G16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="7:7">
       <c r="G17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="7:7">
       <c r="G18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -11701,16 +11767,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11718,7 +11784,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -11726,7 +11792,7 @@
         <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -11734,7 +11800,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -11742,7 +11808,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -11750,7 +11816,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -11758,7 +11824,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -11766,7 +11832,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11774,7 +11840,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -11782,7 +11848,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -11790,7 +11856,7 @@
         <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -11798,7 +11864,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11806,7 +11872,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -11831,16 +11897,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11848,10 +11914,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -11859,10 +11925,10 @@
         <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -11870,10 +11936,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -11881,10 +11947,10 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -11892,10 +11958,10 @@
         <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -11903,10 +11969,10 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -11914,10 +11980,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11925,10 +11991,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -11936,10 +12002,10 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -11947,10 +12013,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -11958,10 +12024,10 @@
         <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11969,10 +12035,10 @@
         <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -11980,10 +12046,10 @@
         <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -11991,10 +12057,10 @@
         <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -12002,10 +12068,10 @@
         <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -12013,10 +12079,10 @@
         <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -12024,10 +12090,10 @@
         <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -12035,10 +12101,10 @@
         <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -12046,10 +12112,10 @@
         <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -12057,10 +12123,10 @@
         <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -12068,10 +12134,10 @@
         <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -12079,10 +12145,10 @@
         <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -12090,10 +12156,10 @@
         <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -12101,10 +12167,10 @@
         <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -12112,10 +12178,10 @@
         <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -12123,21 +12189,21 @@
         <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="131.25">
       <c r="B28" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -12145,10 +12211,10 @@
         <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -12156,10 +12222,10 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -12167,10 +12233,10 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -12182,124 +12248,254 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EA06B3-54C3-4FDD-B7D8-2F1F4111270E}">
-  <dimension ref="B1:B21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="117.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="69.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="2:2">
+      <c r="C1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="75">
       <c r="B2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="112.5">
+      <c r="B3" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="56.25">
+      <c r="B13" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="1" t="s">
-        <v>115</v>
+      <c r="C21" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
